--- a/bin/sample/output/結果.xlsx
+++ b/bin/sample/output/結果.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\excelmacro\excelTextSearchMacro\bin\sample\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFCD6C7F-2B87-4C42-AFE0-FC5732850662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1486A831-CD36-4BB8-94F1-D0D75C1FCD40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{54767983-CE18-4CDA-9045-906B51893270}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0D94F926-4A44-4E5E-8683-990F4C6A39DD}"/>
   </bookViews>
   <sheets>
     <sheet name="処理結果" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="20">
   <si>
     <t>フォルダ（共通部）</t>
     <rPh sb="5" eb="8">
@@ -83,6 +83,9 @@
       <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\excelmacro\excelTextSearchMacro\bin\sample\input</t>
   </si>
   <si>
     <t>sample1.xlsx</t>
@@ -638,7 +641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F040DD33-24E7-4A29-A78D-4B9D842C52E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74861B1E-8941-4F2F-846F-ED49F68C45CF}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -660,7 +663,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -687,352 +692,352 @@
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="str">
-        <f>B1 &amp; "C:\excelmacro\excelTextSearchMacro\bin\sample\input"</f>
+        <f>B1 &amp; ""</f>
         <v>C:\excelmacro\excelTextSearchMacro\bin\sample\input</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>HYPERLINK("["&amp;A3&amp;"\"&amp;B3&amp;"]"&amp;C3&amp;"!B2","B2")</f>
         <v>B2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="str">
-        <f>B1 &amp; "C:\excelmacro\excelTextSearchMacro\bin\sample\input"</f>
+        <f>B1 &amp; ""</f>
         <v>C:\excelmacro\excelTextSearchMacro\bin\sample\input</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="str">
         <f>HYPERLINK("["&amp;A4&amp;"\"&amp;B4&amp;"]"&amp;C4&amp;"!A1","A1")</f>
         <v>A1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="str">
-        <f>B1 &amp; "C:\excelmacro\excelTextSearchMacro\bin\sample\input"</f>
+        <f>B1 &amp; ""</f>
         <v>C:\excelmacro\excelTextSearchMacro\bin\sample\input</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="5" t="str">
         <f>HYPERLINK("["&amp;A5&amp;"\"&amp;B5&amp;"]"&amp;C5&amp;"!C3","C3")</f>
         <v>C3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="str">
-        <f>B1 &amp; "C:\excelmacro\excelTextSearchMacro\bin\sample\input"</f>
+        <f>B1 &amp; ""</f>
         <v>C:\excelmacro\excelTextSearchMacro\bin\sample\input</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="str">
         <f>HYPERLINK("["&amp;A6&amp;"\"&amp;B6&amp;"]"&amp;C6&amp;"!C3","C3")</f>
         <v>C3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="str">
-        <f>B1 &amp; "C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder"</f>
+        <f>B1 &amp; "\subfolder"</f>
         <v>C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="5" t="str">
         <f>HYPERLINK("["&amp;A7&amp;"\"&amp;B7&amp;"]"&amp;C7&amp;"!B2","B2")</f>
         <v>B2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="str">
-        <f>B1 &amp; "C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder"</f>
+        <f>B1 &amp; "\subfolder"</f>
         <v>C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5" t="str">
         <f>HYPERLINK("["&amp;A8&amp;"\"&amp;B8&amp;"]"&amp;C8&amp;"!A1","A1")</f>
         <v>A1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="str">
-        <f>B1 &amp; "C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder"</f>
+        <f>B1 &amp; "\subfolder"</f>
         <v>C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5" t="str">
         <f>HYPERLINK("["&amp;A9&amp;"\"&amp;B9&amp;"]"&amp;C9&amp;"!D6","D6")</f>
         <v>D6</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="str">
-        <f>B1 &amp; "C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder"</f>
+        <f>B1 &amp; "\subfolder"</f>
         <v>C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5" t="str">
         <f>HYPERLINK("["&amp;A10&amp;"\"&amp;B10&amp;"]"&amp;C10&amp;"!C3","C3")</f>
         <v>C3</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="str">
-        <f>B1 &amp; "C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder"</f>
+        <f>B1 &amp; "\subfolder"</f>
         <v>C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="5" t="str">
         <f>HYPERLINK("["&amp;A11&amp;"\"&amp;B11&amp;"]"&amp;C11&amp;"!C3","C3")</f>
         <v>C3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="str">
-        <f>B1 &amp; "C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder"</f>
+        <f>B1 &amp; "\subfolder"</f>
         <v>C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="5" t="str">
         <f>HYPERLINK("["&amp;A12&amp;"\"&amp;B12&amp;"]"&amp;C12&amp;"!B2","B2")</f>
         <v>B2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="str">
-        <f>B1 &amp; "C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder"</f>
+        <f>B1 &amp; "\subfolder"</f>
         <v>C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5" t="str">
         <f>HYPERLINK("["&amp;A13&amp;"\"&amp;B13&amp;"]"&amp;C13&amp;"!A1","A1")</f>
         <v>A1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="str">
-        <f>B1 &amp; "C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder"</f>
+        <f>B1 &amp; "\subfolder"</f>
         <v>C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="5" t="str">
         <f>HYPERLINK("["&amp;A14&amp;"\"&amp;B14&amp;"]"&amp;C14&amp;"!D6","D6")</f>
         <v>D6</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="str">
-        <f>B1 &amp; "C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder"</f>
+        <f>B1 &amp; "\subfolder"</f>
         <v>C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="5" t="str">
         <f>HYPERLINK("["&amp;A15&amp;"\"&amp;B15&amp;"]"&amp;C15&amp;"!C3","C3")</f>
         <v>C3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="str">
-        <f>B1 &amp; "C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder"</f>
+        <f>B1 &amp; "\subfolder"</f>
         <v>C:\excelmacro\excelTextSearchMacro\bin\sample\input\subfolder</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="5" t="str">
         <f>HYPERLINK("["&amp;A16&amp;"\"&amp;B16&amp;"]"&amp;C16&amp;"!C3","C3")</f>
         <v>C3</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
